--- a/etc/databases/routes.xlsx
+++ b/etc/databases/routes.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23913"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15640" tabRatio="500"/>
@@ -21,20 +21,20 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>route_id</t>
+    <t>routeid</t>
   </si>
   <si>
-    <t>stop_id</t>
+    <t>busid</t>
   </si>
   <si>
-    <t>bus_id</t>
+    <t>stopid</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -43,14 +43,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -61,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -69,23 +85,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -415,291 +450,469 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="16384" width="10.83203125" style="4"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3">
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="1">
-        <v>1</v>
-      </c>
-      <c r="C7" s="3">
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="1">
-        <v>1</v>
-      </c>
-      <c r="C11" s="3">
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="1">
-        <v>1</v>
-      </c>
-      <c r="C12" s="3">
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="1">
-        <v>2</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="3">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="3">
+      <c r="B15" s="3">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16" s="3">
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1">
+    <row r="17" spans="1:4">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
-      <c r="B17" s="1">
-        <v>2</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="3">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1">
+    <row r="18" spans="1:4">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" s="1">
-        <v>2</v>
-      </c>
-      <c r="C18" s="3">
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="1">
+    <row r="19" spans="1:4">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="3">
+      <c r="B19" s="3">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="1">
+    <row r="20" spans="1:4">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
-      <c r="B20" s="1">
-        <v>2</v>
-      </c>
-      <c r="C20" s="3">
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="1">
+    <row r="21" spans="1:4">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
-      <c r="B21" s="1">
-        <v>2</v>
-      </c>
-      <c r="C21" s="3">
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1">
+    <row r="22" spans="1:4">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
-      <c r="B22" s="1">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1">
+    <row r="23" spans="1:4">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
-      <c r="B23" s="1">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3">
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1">
+    <row r="24" spans="1:4">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="C24" s="3">
+      <c r="B24" s="3">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1">
+    <row r="25" spans="1:4">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="1">
-        <v>2</v>
-      </c>
-      <c r="C25" s="3">
-        <v>1</v>
-      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="2">
+        <v>3</v>
+      </c>
+      <c r="C26" s="2">
+        <v>19</v>
+      </c>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="7">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1">
+        <v>20</v>
+      </c>
+      <c r="D27" s="6"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="7">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>21</v>
+      </c>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1">
+        <v>22</v>
+      </c>
+      <c r="D29" s="6"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1">
+        <v>23</v>
+      </c>
+      <c r="D30" s="6"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="7">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1">
+        <v>4</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19</v>
+      </c>
+      <c r="D31" s="6"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <v>23</v>
+      </c>
+      <c r="D32" s="6"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="7">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1">
+        <v>4</v>
+      </c>
+      <c r="C33" s="1">
+        <v>24</v>
+      </c>
+      <c r="D33" s="6"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="7">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1">
+        <v>4</v>
+      </c>
+      <c r="C34" s="1">
+        <v>25</v>
+      </c>
+      <c r="D34" s="6"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="7">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1">
+        <v>5</v>
+      </c>
+      <c r="C35" s="1">
+        <v>19</v>
+      </c>
+      <c r="D35" s="6"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="7">
+        <v>35</v>
+      </c>
+      <c r="B36" s="1">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>20</v>
+      </c>
+      <c r="D36" s="6"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="7">
+        <v>36</v>
+      </c>
+      <c r="B37" s="1">
+        <v>5</v>
+      </c>
+      <c r="C37" s="1">
+        <v>21</v>
+      </c>
+      <c r="D37" s="6"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7">
+        <v>37</v>
+      </c>
+      <c r="B38" s="1">
+        <v>5</v>
+      </c>
+      <c r="C38" s="1">
+        <v>22</v>
+      </c>
+      <c r="D38" s="6"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="7">
+        <v>38</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5</v>
+      </c>
+      <c r="C39" s="1">
+        <v>23</v>
+      </c>
+      <c r="D39" s="6"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="D40" s="6"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="D41" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/etc/databases/routes.xlsx
+++ b/etc/databases/routes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15640" tabRatio="500"/>
+    <workbookView xWindow="2240" yWindow="0" windowWidth="25360" windowHeight="15640" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="61A" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -94,13 +94,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -117,6 +126,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -450,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0"/>
@@ -756,7 +769,7 @@
         <v>3</v>
       </c>
       <c r="C27" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D27" s="6"/>
     </row>
@@ -864,7 +877,7 @@
         <v>5</v>
       </c>
       <c r="C36" s="1">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="D36" s="6"/>
     </row>
@@ -893,22 +906,348 @@
       <c r="D38" s="6"/>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="7">
+      <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B39" s="8">
         <v>5</v>
       </c>
-      <c r="C39" s="1">
+      <c r="C39" s="8">
         <v>23</v>
       </c>
-      <c r="D39" s="6"/>
+      <c r="D39" s="9"/>
     </row>
     <row r="40" spans="1:4">
+      <c r="A40" s="3">
+        <v>101</v>
+      </c>
+      <c r="B40" s="3">
+        <v>11</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1</v>
+      </c>
       <c r="D40" s="6"/>
     </row>
     <row r="41" spans="1:4">
+      <c r="A41" s="3">
+        <v>102</v>
+      </c>
+      <c r="B41" s="3">
+        <v>11</v>
+      </c>
+      <c r="C41" s="3">
+        <v>15</v>
+      </c>
       <c r="D41" s="6"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="3">
+        <v>103</v>
+      </c>
+      <c r="B42" s="3">
+        <v>11</v>
+      </c>
+      <c r="C42" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="3">
+        <v>104</v>
+      </c>
+      <c r="B43" s="3">
+        <v>11</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="3">
+        <v>105</v>
+      </c>
+      <c r="B44" s="3">
+        <v>11</v>
+      </c>
+      <c r="C44" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="3">
+        <v>106</v>
+      </c>
+      <c r="B45" s="3">
+        <v>12</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="3">
+        <v>107</v>
+      </c>
+      <c r="B46" s="3">
+        <v>12</v>
+      </c>
+      <c r="C46" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="3">
+        <v>108</v>
+      </c>
+      <c r="B47" s="3">
+        <v>12</v>
+      </c>
+      <c r="C47" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="3">
+        <v>109</v>
+      </c>
+      <c r="B48" s="3">
+        <v>12</v>
+      </c>
+      <c r="C48" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="3">
+        <v>110</v>
+      </c>
+      <c r="B49" s="3">
+        <v>12</v>
+      </c>
+      <c r="C49" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="3">
+        <v>111</v>
+      </c>
+      <c r="B50" s="3">
+        <v>13</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="3">
+        <v>112</v>
+      </c>
+      <c r="B51" s="3">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="3">
+        <v>113</v>
+      </c>
+      <c r="B52" s="3">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="3">
+        <v>114</v>
+      </c>
+      <c r="B53" s="3">
+        <v>13</v>
+      </c>
+      <c r="C53" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="3">
+        <v>115</v>
+      </c>
+      <c r="B54" s="3">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="3">
+        <v>116</v>
+      </c>
+      <c r="B55" s="3">
+        <v>14</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="3">
+        <v>117</v>
+      </c>
+      <c r="B56" s="3">
+        <v>14</v>
+      </c>
+      <c r="C56" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="3">
+        <v>118</v>
+      </c>
+      <c r="B57" s="3">
+        <v>14</v>
+      </c>
+      <c r="C57" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="3">
+        <v>119</v>
+      </c>
+      <c r="B58" s="3">
+        <v>14</v>
+      </c>
+      <c r="C58" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="3">
+        <v>120</v>
+      </c>
+      <c r="B59" s="3">
+        <v>14</v>
+      </c>
+      <c r="C59" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="3">
+        <v>121</v>
+      </c>
+      <c r="B60" s="3">
+        <v>15</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="3">
+        <v>122</v>
+      </c>
+      <c r="B61" s="3">
+        <v>15</v>
+      </c>
+      <c r="C61" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="3">
+        <v>123</v>
+      </c>
+      <c r="B62" s="3">
+        <v>15</v>
+      </c>
+      <c r="C62" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="3">
+        <v>124</v>
+      </c>
+      <c r="B63" s="3">
+        <v>15</v>
+      </c>
+      <c r="C63" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="3">
+        <v>125</v>
+      </c>
+      <c r="B64" s="3">
+        <v>15</v>
+      </c>
+      <c r="C64" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="3">
+        <v>126</v>
+      </c>
+      <c r="B65" s="3">
+        <v>16</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="3">
+        <v>127</v>
+      </c>
+      <c r="B66" s="3">
+        <v>16</v>
+      </c>
+      <c r="C66" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="3">
+        <v>128</v>
+      </c>
+      <c r="B67" s="3">
+        <v>16</v>
+      </c>
+      <c r="C67" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="3">
+        <v>129</v>
+      </c>
+      <c r="B68" s="3">
+        <v>16</v>
+      </c>
+      <c r="C68" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="3">
+        <v>130</v>
+      </c>
+      <c r="B69" s="3">
+        <v>16</v>
+      </c>
+      <c r="C69" s="3">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
